--- a/output/damage/BRN_osm_tc__HadGEM3-GC31-HM_damage_1.xlsx
+++ b/output/damage/BRN_osm_tc__HadGEM3-GC31-HM_damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0001624406104604055</v>
+        <v>0.3986329008173865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001218304578453041</v>
+        <v>0.2989746756130399</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002030507630755069</v>
+        <v>0.4982911260217332</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.000324881220920811</v>
+        <v>0.797265801634773</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002436609156906082</v>
+        <v>0.5979493512260798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004061015261510138</v>
+        <v>0.9965822520434664</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0008122030523020276</v>
+        <v>1.993164504086933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006091522892265206</v>
+        <v>1.4948733780652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001015253815377534</v>
+        <v>2.491455630108666</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.097447294818606e-09</v>
+        <v>0.0002072230331531697</v>
       </c>
       <c r="F5" t="n">
-        <v>2.323085471113955e-09</v>
+        <v>0.0001554172748648773</v>
       </c>
       <c r="G5" t="n">
-        <v>3.871809118523258e-09</v>
+        <v>0.0002590287914414622</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6.194894589637212e-09</v>
+        <v>0.0004144460663063394</v>
       </c>
       <c r="F6" t="n">
-        <v>4.646170942227909e-09</v>
+        <v>0.0003108345497297546</v>
       </c>
       <c r="G6" t="n">
-        <v>7.743618237046515e-09</v>
+        <v>0.0005180575828829244</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.548723647409303e-08</v>
+        <v>0.001036115165765849</v>
       </c>
       <c r="F7" t="n">
-        <v>1.161542735556977e-08</v>
+        <v>0.0007770863743243866</v>
       </c>
       <c r="G7" t="n">
-        <v>1.935904559261629e-08</v>
+        <v>0.001295143957207311</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.316226542212662e-09</v>
+        <v>0.0001069250394354919</v>
       </c>
       <c r="F8" t="n">
-        <v>1.737169906659497e-09</v>
+        <v>8.019377957661897e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>2.895283177765828e-09</v>
+        <v>0.000133656299294365</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.632453084425324e-09</v>
+        <v>0.0002138500788709839</v>
       </c>
       <c r="F9" t="n">
-        <v>3.474339813318994e-09</v>
+        <v>0.0001603875591532379</v>
       </c>
       <c r="G9" t="n">
-        <v>5.790566355531656e-09</v>
+        <v>0.0002673125985887299</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.158113271106331e-08</v>
+        <v>0.0005346251971774599</v>
       </c>
       <c r="F10" t="n">
-        <v>8.685849533297483e-09</v>
+        <v>0.0004009688978830948</v>
       </c>
       <c r="G10" t="n">
-        <v>1.447641588882914e-08</v>
+        <v>0.0006682814964718249</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.360296971330176e-08</v>
+        <v>0.000254620546783873</v>
       </c>
       <c r="F11" t="n">
-        <v>1.020222728497632e-08</v>
+        <v>0.0001909654100879047</v>
       </c>
       <c r="G11" t="n">
-        <v>1.70037121416272e-08</v>
+        <v>0.0003182756834798412</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.720593942660351e-08</v>
+        <v>0.0005092410935677459</v>
       </c>
       <c r="F12" t="n">
-        <v>2.040445456995264e-08</v>
+        <v>0.0003819308201758094</v>
       </c>
       <c r="G12" t="n">
-        <v>3.400742428325439e-08</v>
+        <v>0.0006365513669596824</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.801484856650879e-08</v>
+        <v>0.001273102733919365</v>
       </c>
       <c r="F13" t="n">
-        <v>5.101113642488158e-08</v>
+        <v>0.0009548270504395238</v>
       </c>
       <c r="G13" t="n">
-        <v>8.501856070813599e-08</v>
+        <v>0.001591378417399206</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.54411307951632e-09</v>
+        <v>4.531535256596328e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>1.15808480963724e-09</v>
+        <v>3.398651442447246e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.930141349395401e-09</v>
+        <v>5.66441907074541e-05</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.08822615903264e-09</v>
+        <v>9.063070513192655e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>2.31616961927448e-09</v>
+        <v>6.797302884894493e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.860282698790801e-09</v>
+        <v>0.0001132883814149082</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.720565397581602e-09</v>
+        <v>0.0002265767628298164</v>
       </c>
       <c r="F16" t="n">
-        <v>5.7904240481862e-09</v>
+        <v>0.0001699325721223623</v>
       </c>
       <c r="G16" t="n">
-        <v>9.650706746977e-09</v>
+        <v>0.0002832209535372706</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>304728.5586120104</v>
+        <v>55681.3068397815</v>
       </c>
       <c r="F17" t="n">
-        <v>228546.4189590078</v>
+        <v>41760.98012983613</v>
       </c>
       <c r="G17" t="n">
-        <v>380910.6982650131</v>
+        <v>69601.63354972689</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>609457.1172240209</v>
+        <v>130056.1523228237</v>
       </c>
       <c r="F18" t="n">
-        <v>457092.8379180157</v>
+        <v>97542.11424211776</v>
       </c>
       <c r="G18" t="n">
-        <v>761821.3965300261</v>
+        <v>162570.1904035296</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1523642.793060052</v>
+        <v>43739.02843314778</v>
       </c>
       <c r="F19" t="n">
-        <v>1142732.094795039</v>
+        <v>32804.27132486083</v>
       </c>
       <c r="G19" t="n">
-        <v>1904553.491325065</v>
+        <v>54673.78554143473</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>260669.6463323193</v>
+        <v>37499.34288319257</v>
       </c>
       <c r="F20" t="n">
-        <v>195502.2347492395</v>
+        <v>28124.50716239443</v>
       </c>
       <c r="G20" t="n">
-        <v>325837.0579153991</v>
+        <v>46874.17860399072</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>521339.2926646386</v>
+        <v>77744.0960997044</v>
       </c>
       <c r="F21" t="n">
-        <v>391004.469498479</v>
+        <v>58308.07207477831</v>
       </c>
       <c r="G21" t="n">
-        <v>651674.1158307983</v>
+        <v>97180.12012463051</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1303348.231661597</v>
+        <v>235228.8337491159</v>
       </c>
       <c r="F22" t="n">
-        <v>977511.1737461974</v>
+        <v>176421.6253118369</v>
       </c>
       <c r="G22" t="n">
-        <v>1629185.289576996</v>
+        <v>294036.0421863949</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F23" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G23" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F24" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G24" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F25" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G25" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G28" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F32" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G35" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F38" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G38" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F39" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G39" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F40" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G40" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F41" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G41" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F42" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G42" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F43" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G43" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F44" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G44" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F45" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G45" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F46" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G46" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G49" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F52" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F53" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G53" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F54" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G54" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F56" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G56" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G58" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F59" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G59" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F60" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G60" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F61" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G61" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F62" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G62" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F63" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G63" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F64" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G64" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F65" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G65" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F66" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G66" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F67" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G67" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F68" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G68" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F69" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G69" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G70" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F71" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G71" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F72" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F73" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G73" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F74" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G74" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F75" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F76" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F77" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G77" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F78" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G78" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F79" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G79" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F80" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G80" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F81" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G81" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F82" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G82" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F83" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G83" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F84" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G84" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F85" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G85" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.909697385808119e-08</v>
+        <v>0.001233369377343096</v>
       </c>
       <c r="F86" t="n">
-        <v>2.932273039356089e-08</v>
+        <v>0.0009250270330073218</v>
       </c>
       <c r="G86" t="n">
-        <v>4.887121732260149e-08</v>
+        <v>0.00154171172167887</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7.819394771616237e-08</v>
+        <v>0.002466738754686192</v>
       </c>
       <c r="F87" t="n">
-        <v>5.864546078712179e-08</v>
+        <v>0.001850054066014644</v>
       </c>
       <c r="G87" t="n">
-        <v>9.774243464520298e-08</v>
+        <v>0.003083423443357739</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.95484869290406e-07</v>
+        <v>0.006166846886715479</v>
       </c>
       <c r="F88" t="n">
-        <v>1.466136519678045e-07</v>
+        <v>0.004625135165036609</v>
       </c>
       <c r="G88" t="n">
-        <v>2.443560866130074e-07</v>
+        <v>0.007708558608394349</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.895703438417543e-15</v>
+        <v>7.4268879079343e-08</v>
       </c>
       <c r="F89" t="n">
-        <v>5.171777578813158e-15</v>
+        <v>5.570165930950726e-08</v>
       </c>
       <c r="G89" t="n">
-        <v>8.619629298021931e-15</v>
+        <v>9.283609884917876e-08</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.379140687683509e-14</v>
+        <v>1.48537758158686e-07</v>
       </c>
       <c r="F90" t="n">
-        <v>1.034355515762632e-14</v>
+        <v>1.114033186190145e-07</v>
       </c>
       <c r="G90" t="n">
-        <v>1.723925859604386e-14</v>
+        <v>1.856721976983575e-07</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.447851719208772e-14</v>
+        <v>3.71344395396715e-07</v>
       </c>
       <c r="F91" t="n">
-        <v>2.585888789406579e-14</v>
+        <v>2.785082965475363e-07</v>
       </c>
       <c r="G91" t="n">
-        <v>4.309814649010966e-14</v>
+        <v>4.641804942458938e-07</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.003186559563204e-14</v>
+        <v>4.685246341760744e-08</v>
       </c>
       <c r="F92" t="n">
-        <v>7.52389919672403e-15</v>
+        <v>3.513934756320558e-08</v>
       </c>
       <c r="G92" t="n">
-        <v>1.253983199454005e-14</v>
+        <v>5.85655792720093e-08</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2.006373119126408e-14</v>
+        <v>9.370492683521488e-08</v>
       </c>
       <c r="F93" t="n">
-        <v>1.504779839344806e-14</v>
+        <v>7.027869512641117e-08</v>
       </c>
       <c r="G93" t="n">
-        <v>2.50796639890801e-14</v>
+        <v>1.171311585440186e-07</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5.015932797816021e-14</v>
+        <v>2.342623170880372e-07</v>
       </c>
       <c r="F94" t="n">
-        <v>3.761949598362015e-14</v>
+        <v>1.756967378160279e-07</v>
       </c>
       <c r="G94" t="n">
-        <v>6.269915997270026e-14</v>
+        <v>2.928278963600465e-07</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.347966564487097e-13</v>
+        <v>1.910091136745533e-07</v>
       </c>
       <c r="F95" t="n">
-        <v>1.760974923365323e-13</v>
+        <v>1.43256835255915e-07</v>
       </c>
       <c r="G95" t="n">
-        <v>2.934958205608871e-13</v>
+        <v>2.387613920931916e-07</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4.695933128974193e-13</v>
+        <v>3.820182273491065e-07</v>
       </c>
       <c r="F96" t="n">
-        <v>3.521949846730645e-13</v>
+        <v>2.865136705118299e-07</v>
       </c>
       <c r="G96" t="n">
-        <v>5.869916411217741e-13</v>
+        <v>4.775227841863832e-07</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.173983282243548e-12</v>
+        <v>9.550455683727664e-07</v>
       </c>
       <c r="F97" t="n">
-        <v>8.804874616826613e-13</v>
+        <v>7.162841762795749e-07</v>
       </c>
       <c r="G97" t="n">
-        <v>1.467479102804436e-12</v>
+        <v>1.193806960465958e-06</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1.516643844888363e-14</v>
+        <v>2.565043740562866e-08</v>
       </c>
       <c r="F98" t="n">
-        <v>1.137482883666272e-14</v>
+        <v>1.92378280542215e-08</v>
       </c>
       <c r="G98" t="n">
-        <v>1.895804806110454e-14</v>
+        <v>3.206304675703583e-08</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3.033287689776726e-14</v>
+        <v>5.130087481125732e-08</v>
       </c>
       <c r="F99" t="n">
-        <v>2.274965767332545e-14</v>
+        <v>3.8475656108443e-08</v>
       </c>
       <c r="G99" t="n">
-        <v>3.791609612220909e-14</v>
+        <v>6.412609351407166e-08</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>7.583219224441818e-14</v>
+        <v>1.282521870281433e-07</v>
       </c>
       <c r="F100" t="n">
-        <v>5.687414418331363e-14</v>
+        <v>9.618914027110749e-08</v>
       </c>
       <c r="G100" t="n">
-        <v>9.479024030552272e-14</v>
+        <v>1.603152337851792e-07</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>277830.4404443201</v>
+        <v>41728.61416819756</v>
       </c>
       <c r="F101" t="n">
-        <v>208372.8303332401</v>
+        <v>31296.46062614817</v>
       </c>
       <c r="G101" t="n">
-        <v>347288.0505554001</v>
+        <v>52160.76771024697</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>555660.8808886402</v>
+        <v>88980.34103441695</v>
       </c>
       <c r="F102" t="n">
-        <v>416745.6606664801</v>
+        <v>66735.25577581272</v>
       </c>
       <c r="G102" t="n">
-        <v>694576.1011108003</v>
+        <v>111225.4262930212</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1389152.202221601</v>
+        <v>4861.431325069885</v>
       </c>
       <c r="F103" t="n">
-        <v>1041864.1516662</v>
+        <v>3646.073493802414</v>
       </c>
       <c r="G103" t="n">
-        <v>1736440.252777001</v>
+        <v>6076.789156337357</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>213534.5770339786</v>
+        <v>31965.27992922992</v>
       </c>
       <c r="F104" t="n">
-        <v>160150.932775484</v>
+        <v>23973.95994692244</v>
       </c>
       <c r="G104" t="n">
-        <v>266918.2212924733</v>
+        <v>39956.59991153741</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>427069.1540679572</v>
+        <v>63930.55985845985</v>
       </c>
       <c r="F105" t="n">
-        <v>320301.865550968</v>
+        <v>47947.91989384489</v>
       </c>
       <c r="G105" t="n">
-        <v>533836.4425849466</v>
+        <v>79913.19982307481</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1067672.885169893</v>
+        <v>195439.2430527206</v>
       </c>
       <c r="F106" t="n">
-        <v>800754.66387742</v>
+        <v>146579.4322895404</v>
       </c>
       <c r="G106" t="n">
-        <v>1334591.106462367</v>
+        <v>244299.0538159008</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F107" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G107" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F108" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G108" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F109" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G109" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F111" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G111" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G112" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F113" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F114" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G114" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F115" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G115" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F116" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G116" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F117" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F118" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G118" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F119" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G119" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F120" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F121" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G121" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F122" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G122" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F123" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G123" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F124" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G124" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F125" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G125" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F126" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G126" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F127" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G127" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F128" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G128" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F129" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G129" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F130" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G130" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F131" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G131" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F133" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G133" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F134" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G134" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F135" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G135" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F136" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G136" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F137" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G137" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F138" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G139" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F140" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G140" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G141" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F142" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G142" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F143" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G143" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F144" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G144" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F145" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G145" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F146" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G146" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F147" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G147" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F148" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G148" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4.5802445578126e-06</v>
+        <v>0.0251509527419</v>
       </c>
       <c r="F149" t="n">
-        <v>3.43518341835945e-06</v>
+        <v>0.01886321455642501</v>
       </c>
       <c r="G149" t="n">
-        <v>5.725305697265751e-06</v>
+        <v>0.03143869092737502</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>9.160489115625199e-06</v>
+        <v>0.05030190548380001</v>
       </c>
       <c r="F150" t="n">
-        <v>6.8703668367189e-06</v>
+        <v>0.03772642911285001</v>
       </c>
       <c r="G150" t="n">
-        <v>1.14506113945315e-05</v>
+        <v>0.06287738185475003</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2.290122278906301e-05</v>
+        <v>0.1257547637095001</v>
       </c>
       <c r="F151" t="n">
-        <v>1.717591709179725e-05</v>
+        <v>0.09431607278212505</v>
       </c>
       <c r="G151" t="n">
-        <v>2.862652848632876e-05</v>
+        <v>0.1571934546368751</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1.071431138996938e-11</v>
+        <v>2.971742932158253e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>8.035733542477033e-12</v>
+        <v>2.22880719911869e-06</v>
       </c>
       <c r="G152" t="n">
-        <v>1.339288923746172e-11</v>
+        <v>3.714678665197817e-06</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2.142862277993875e-11</v>
+        <v>5.943485864316506e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>1.607146708495407e-11</v>
+        <v>4.45761439823738e-06</v>
       </c>
       <c r="G153" t="n">
-        <v>2.678577847492345e-11</v>
+        <v>7.429357330395633e-06</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5.357155694984689e-11</v>
+        <v>1.485871466079127e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>4.017866771238517e-11</v>
+        <v>1.114403599559345e-05</v>
       </c>
       <c r="G154" t="n">
-        <v>6.696444618730861e-11</v>
+        <v>1.857339332598908e-05</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.06509996324791e-11</v>
+        <v>1.791394652593289e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>7.988249724359324e-12</v>
+        <v>1.343545989444967e-06</v>
       </c>
       <c r="G155" t="n">
-        <v>1.331374954059887e-11</v>
+        <v>2.239243315741612e-06</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2.130199926495819e-11</v>
+        <v>3.582789305186578e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>1.597649944871865e-11</v>
+        <v>2.687091978889935e-06</v>
       </c>
       <c r="G156" t="n">
-        <v>2.662749908119775e-11</v>
+        <v>4.478486631483224e-06</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>5.32549981623955e-11</v>
+        <v>8.956973262966447e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>3.994124862179662e-11</v>
+        <v>6.717729947224836e-06</v>
       </c>
       <c r="G157" t="n">
-        <v>6.656874770299437e-11</v>
+        <v>1.119621657870806e-05</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.152828119138747e-10</v>
+        <v>6.357507749601519e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>8.646210893540606e-11</v>
+        <v>4.76813081220114e-06</v>
       </c>
       <c r="G158" t="n">
-        <v>1.441035148923435e-10</v>
+        <v>7.946884687001901e-06</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2.305656238277495e-10</v>
+        <v>1.271501549920304e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>1.729242178708121e-10</v>
+        <v>9.536261624402281e-06</v>
       </c>
       <c r="G159" t="n">
-        <v>2.882070297846869e-10</v>
+        <v>1.58937693740038e-05</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>5.764140595693739e-10</v>
+        <v>3.17875387480076e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>4.323105446770303e-10</v>
+        <v>2.38406540610057e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>7.205175744617172e-10</v>
+        <v>3.97344234350095e-05</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1.004883633433657e-11</v>
+        <v>9.177585697276758e-07</v>
       </c>
       <c r="F161" t="n">
-        <v>7.536627250752429e-12</v>
+        <v>6.88318927295757e-07</v>
       </c>
       <c r="G161" t="n">
-        <v>1.256104541792072e-11</v>
+        <v>1.147198212159595e-06</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.009767266867314e-11</v>
+        <v>1.835517139455352e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>1.507325450150486e-11</v>
+        <v>1.376637854591514e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>2.512209083584143e-11</v>
+        <v>2.29439642431919e-06</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5.024418167168287e-11</v>
+        <v>4.588792848638379e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>3.768313625376215e-11</v>
+        <v>3.441594636478785e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>6.280522708960358e-11</v>
+        <v>5.735991060797974e-06</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>291885.5902898385</v>
+        <v>45933.46873433083</v>
       </c>
       <c r="F164" t="n">
-        <v>218914.1927173789</v>
+        <v>34450.10155074814</v>
       </c>
       <c r="G164" t="n">
-        <v>364856.9878622981</v>
+        <v>57416.83591791356</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>583771.180579677</v>
+        <v>107481.7011254034</v>
       </c>
       <c r="F165" t="n">
-        <v>437828.3854347577</v>
+        <v>80611.27584405256</v>
       </c>
       <c r="G165" t="n">
-        <v>729713.9757245963</v>
+        <v>134352.1264067543</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1459427.951449193</v>
+        <v>25885.70415573631</v>
       </c>
       <c r="F166" t="n">
-        <v>1094570.963586894</v>
+        <v>19414.27811680223</v>
       </c>
       <c r="G166" t="n">
-        <v>1824284.939311491</v>
+        <v>32357.13019467039</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>238756.8373335891</v>
+        <v>35329.16358213655</v>
       </c>
       <c r="F167" t="n">
-        <v>179067.6280001918</v>
+        <v>26496.87268660242</v>
       </c>
       <c r="G167" t="n">
-        <v>298446.0466669864</v>
+        <v>44161.45447767069</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>477513.6746671781</v>
+        <v>70658.3271642731</v>
       </c>
       <c r="F168" t="n">
-        <v>358135.2560003837</v>
+        <v>52993.74537320483</v>
       </c>
       <c r="G168" t="n">
-        <v>596892.0933339727</v>
+        <v>88322.90895534138</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1193784.186667945</v>
+        <v>220668.3704495203</v>
       </c>
       <c r="F169" t="n">
-        <v>895338.1400009592</v>
+        <v>165501.2778371402</v>
       </c>
       <c r="G169" t="n">
-        <v>1492230.233334932</v>
+        <v>275835.4630619003</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F170" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G170" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F171" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G171" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F172" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G172" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F173" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G173" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F174" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G174" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F175" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G175" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F176" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G176" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F177" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G177" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F178" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G178" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F179" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G179" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G180" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G181" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F182" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G182" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F183" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F184" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G184" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F185" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G185" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F186" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G186" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F187" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G187" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F188" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G188" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F189" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G189" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F190" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G190" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.917791767378291e-08</v>
+        <v>0.0001389976435992339</v>
       </c>
       <c r="F191" t="n">
-        <v>1.438343825533718e-08</v>
+        <v>0.0001042482326994255</v>
       </c>
       <c r="G191" t="n">
-        <v>2.397239709222864e-08</v>
+        <v>0.0001737470544990424</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3.835583534756582e-08</v>
+        <v>0.0002779952871984679</v>
       </c>
       <c r="F192" t="n">
-        <v>2.876687651067437e-08</v>
+        <v>0.0002084964653988509</v>
       </c>
       <c r="G192" t="n">
-        <v>4.794479418445728e-08</v>
+        <v>0.0003474941089980849</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>9.588958836891457e-08</v>
+        <v>0.0006949882179961697</v>
       </c>
       <c r="F193" t="n">
-        <v>7.191719127668592e-08</v>
+        <v>0.0005212411634971273</v>
       </c>
       <c r="G193" t="n">
-        <v>1.198619854611432e-07</v>
+        <v>0.0008687352724952123</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.374434112587281e-15</v>
+        <v>2.623939413830468e-09</v>
       </c>
       <c r="F194" t="n">
-        <v>2.530825584440461e-15</v>
+        <v>1.967954560372851e-09</v>
       </c>
       <c r="G194" t="n">
-        <v>4.218042640734101e-15</v>
+        <v>3.279924267288085e-09</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.748868225174561e-15</v>
+        <v>5.247878827660936e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>5.061651168880921e-15</v>
+        <v>3.935909120745703e-09</v>
       </c>
       <c r="G195" t="n">
-        <v>8.436085281468202e-15</v>
+        <v>6.55984853457617e-09</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.68721705629364e-14</v>
+        <v>1.311969706915234e-08</v>
       </c>
       <c r="F196" t="n">
-        <v>1.26541279222023e-14</v>
+        <v>9.839772801864256e-09</v>
       </c>
       <c r="G196" t="n">
-        <v>2.109021320367051e-14</v>
+        <v>1.639962133644043e-08</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>4.909460367673241e-15</v>
+        <v>1.963062400788982e-09</v>
       </c>
       <c r="F197" t="n">
-        <v>3.682095275754932e-15</v>
+        <v>1.472296800591737e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>6.136825459591553e-15</v>
+        <v>2.453828000986228e-09</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>9.818920735346482e-15</v>
+        <v>3.926124801577964e-09</v>
       </c>
       <c r="F198" t="n">
-        <v>7.364190551509863e-15</v>
+        <v>2.944593601183473e-09</v>
       </c>
       <c r="G198" t="n">
-        <v>1.227365091918311e-14</v>
+        <v>4.907656001972456e-09</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.454730183836621e-14</v>
+        <v>9.815312003944911e-09</v>
       </c>
       <c r="F199" t="n">
-        <v>1.841047637877466e-14</v>
+        <v>7.361484002958683e-09</v>
       </c>
       <c r="G199" t="n">
-        <v>3.068412729795777e-14</v>
+        <v>1.226914000493114e-08</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.149389413406048e-13</v>
+        <v>1.154719721038525e-08</v>
       </c>
       <c r="F200" t="n">
-        <v>8.620420600545361e-14</v>
+        <v>8.660397907788942e-09</v>
       </c>
       <c r="G200" t="n">
-        <v>1.43673676675756e-13</v>
+        <v>1.443399651298157e-08</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2.298778826812096e-13</v>
+        <v>2.309439442077051e-08</v>
       </c>
       <c r="F201" t="n">
-        <v>1.724084120109072e-13</v>
+        <v>1.732079581557788e-08</v>
       </c>
       <c r="G201" t="n">
-        <v>2.87347353351512e-13</v>
+        <v>2.886799302596314e-08</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>5.74694706703024e-13</v>
+        <v>5.773598605192627e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>4.31021030027268e-13</v>
+        <v>4.33019895389447e-08</v>
       </c>
       <c r="G202" t="n">
-        <v>7.183683833787801e-13</v>
+        <v>7.216998256490785e-08</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.423408819092508e-15</v>
+        <v>1.309701133895926e-09</v>
       </c>
       <c r="F203" t="n">
-        <v>5.567556614319383e-15</v>
+        <v>9.822758504219442e-10</v>
       </c>
       <c r="G203" t="n">
-        <v>9.279261023865638e-15</v>
+        <v>1.637126417369907e-09</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.484681763818502e-14</v>
+        <v>2.619402267791851e-09</v>
       </c>
       <c r="F204" t="n">
-        <v>1.113511322863877e-14</v>
+        <v>1.964551700843888e-09</v>
       </c>
       <c r="G204" t="n">
-        <v>1.855852204773128e-14</v>
+        <v>3.274252834739814e-09</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3.711704409546255e-14</v>
+        <v>6.548505669479628e-09</v>
       </c>
       <c r="F205" t="n">
-        <v>2.783778307159691e-14</v>
+        <v>4.911379252109721e-09</v>
       </c>
       <c r="G205" t="n">
-        <v>4.639630511932819e-14</v>
+        <v>8.185632086849537e-09</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>269456.4122660375</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F206" t="n">
-        <v>202092.3091995282</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G206" t="n">
-        <v>336820.515332547</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>538912.824532075</v>
+        <v>84219.00038168282</v>
       </c>
       <c r="F207" t="n">
-        <v>404184.6183990563</v>
+        <v>63164.25028626211</v>
       </c>
       <c r="G207" t="n">
-        <v>673641.0306650939</v>
+        <v>105273.7504771035</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1347282.061330188</v>
+        <v>778.6085988795775</v>
       </c>
       <c r="F208" t="n">
-        <v>1010461.545997641</v>
+        <v>583.9564491596832</v>
       </c>
       <c r="G208" t="n">
-        <v>1684102.576662735</v>
+        <v>973.2607485994719</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>194292.8000295727</v>
+        <v>28975.11498566616</v>
       </c>
       <c r="F209" t="n">
-        <v>145719.6000221795</v>
+        <v>21731.33623924962</v>
       </c>
       <c r="G209" t="n">
-        <v>242866.0000369659</v>
+        <v>36218.8937320827</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>388585.6000591453</v>
+        <v>59410.80078844063</v>
       </c>
       <c r="F210" t="n">
-        <v>291439.200044359</v>
+        <v>44558.10059133048</v>
       </c>
       <c r="G210" t="n">
-        <v>485732.0000739317</v>
+        <v>74263.5009855508</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>971464.0001478634</v>
+        <v>169361.5789332215</v>
       </c>
       <c r="F211" t="n">
-        <v>728598.0001108976</v>
+        <v>127021.1841999161</v>
       </c>
       <c r="G211" t="n">
-        <v>1214330.000184829</v>
+        <v>211701.9736665268</v>
       </c>
     </row>
   </sheetData>
